--- a/Thesis/ModelForSensitivity/layoutSetup_baseCase3/Inputs/TRs/3600-0.2-40-6.xlsx
+++ b/Thesis/ModelForSensitivity/layoutSetup_baseCase3/Inputs/TRs/3600-0.2-40-6.xlsx
@@ -40,16 +40,16 @@
     <t>requestCost</t>
   </si>
   <si>
+    <t>A,C</t>
+  </si>
+  <si>
+    <t>A,B</t>
+  </si>
+  <si>
     <t>E</t>
   </si>
   <si>
-    <t>A,C</t>
-  </si>
-  <si>
     <t>C,D</t>
-  </si>
-  <si>
-    <t>A,B</t>
   </si>
 </sst>
 </file>
@@ -441,22 +441,22 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B2">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="C2">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="D2">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="E2">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="F2">
-        <v>1770</v>
+        <v>1651</v>
       </c>
       <c r="G2" t="s">
         <v>8</v>
@@ -467,51 +467,51 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3">
+        <v>19</v>
+      </c>
+      <c r="B3">
+        <v>35</v>
+      </c>
+      <c r="C3">
         <v>12</v>
       </c>
-      <c r="B3">
-        <v>116</v>
-      </c>
-      <c r="C3">
-        <v>14</v>
-      </c>
       <c r="D3">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>116</v>
+        <v>35</v>
       </c>
       <c r="F3">
-        <v>1499</v>
+        <v>1720</v>
       </c>
       <c r="G3" t="s">
         <v>9</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B4">
-        <v>142</v>
+        <v>63</v>
       </c>
       <c r="C4">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="D4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4">
-        <v>142</v>
+        <v>63</v>
       </c>
       <c r="F4">
-        <v>1261</v>
+        <v>1798</v>
       </c>
       <c r="G4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -519,51 +519,51 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B5">
-        <v>204</v>
+        <v>102</v>
       </c>
       <c r="C5">
+        <v>16</v>
+      </c>
+      <c r="D5">
         <v>20</v>
       </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
       <c r="E5">
-        <v>204</v>
+        <v>102</v>
       </c>
       <c r="F5">
-        <v>2037</v>
+        <v>1436</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>430</v>
+        <v>171</v>
       </c>
       <c r="C6">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="D6">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="E6">
-        <v>430</v>
+        <v>171</v>
       </c>
       <c r="F6">
-        <v>624</v>
+        <v>1628</v>
       </c>
       <c r="G6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H6">
         <v>2</v>
@@ -571,48 +571,48 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="B7">
-        <v>482</v>
+        <v>208</v>
       </c>
       <c r="C7">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E7">
-        <v>482</v>
+        <v>208</v>
       </c>
       <c r="F7">
-        <v>651</v>
+        <v>1837</v>
       </c>
       <c r="G7" t="s">
         <v>9</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B8">
-        <v>511</v>
+        <v>577</v>
       </c>
       <c r="C8">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D8">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="E8">
-        <v>511</v>
+        <v>577</v>
       </c>
       <c r="F8">
-        <v>1720</v>
+        <v>2414</v>
       </c>
       <c r="G8" t="s">
         <v>8</v>
@@ -623,77 +623,77 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B9">
-        <v>515</v>
+        <v>662</v>
       </c>
       <c r="C9">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="E9">
-        <v>515</v>
+        <v>662</v>
       </c>
       <c r="F9">
-        <v>2120</v>
+        <v>772</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B10">
-        <v>547</v>
+        <v>1004</v>
       </c>
       <c r="C10">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="D10">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E10">
-        <v>547</v>
+        <v>1004</v>
       </c>
       <c r="F10">
-        <v>1600</v>
+        <v>1121</v>
       </c>
       <c r="G10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B11">
-        <v>582</v>
+        <v>1075</v>
       </c>
       <c r="C11">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D11">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="E11">
-        <v>582</v>
+        <v>1075</v>
       </c>
       <c r="F11">
-        <v>1899</v>
+        <v>2853</v>
       </c>
       <c r="G11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -701,103 +701,103 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>630</v>
+        <v>1109</v>
       </c>
       <c r="C12">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D12">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E12">
-        <v>630</v>
+        <v>1109</v>
       </c>
       <c r="F12">
-        <v>848</v>
+        <v>2220</v>
       </c>
       <c r="G12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>760</v>
+        <v>1263</v>
       </c>
       <c r="C13">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D13">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>760</v>
+        <v>1263</v>
       </c>
       <c r="F13">
-        <v>1031</v>
+        <v>1384</v>
       </c>
       <c r="G13" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B14">
-        <v>842</v>
+        <v>1414</v>
       </c>
       <c r="C14">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D14">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="E14">
-        <v>842</v>
+        <v>1414</v>
       </c>
       <c r="F14">
-        <v>2197</v>
+        <v>1492</v>
       </c>
       <c r="G14" t="s">
         <v>11</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B15">
-        <v>923</v>
+        <v>1546</v>
       </c>
       <c r="C15">
+        <v>25</v>
+      </c>
+      <c r="D15">
         <v>28</v>
       </c>
-      <c r="D15">
-        <v>6</v>
-      </c>
       <c r="E15">
-        <v>923</v>
+        <v>1546</v>
       </c>
       <c r="F15">
-        <v>2684</v>
+        <v>1651</v>
       </c>
       <c r="G15" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -805,51 +805,51 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B16">
-        <v>967</v>
+        <v>1555</v>
       </c>
       <c r="C16">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D16">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E16">
-        <v>967</v>
+        <v>1555</v>
       </c>
       <c r="F16">
-        <v>2366</v>
+        <v>2550</v>
       </c>
       <c r="G16" t="s">
         <v>8</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="B17">
-        <v>984</v>
+        <v>1574</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D17">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E17">
-        <v>984</v>
+        <v>1574</v>
       </c>
       <c r="F17">
-        <v>1255</v>
+        <v>3352</v>
       </c>
       <c r="G17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H17">
         <v>2</v>
@@ -857,25 +857,25 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B18">
-        <v>1038</v>
+        <v>1581</v>
       </c>
       <c r="C18">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D18">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E18">
-        <v>1038</v>
+        <v>1581</v>
       </c>
       <c r="F18">
-        <v>2885</v>
+        <v>2514</v>
       </c>
       <c r="G18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -883,54 +883,54 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B19">
-        <v>1063</v>
+        <v>1627</v>
       </c>
       <c r="C19">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D19">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E19">
-        <v>1063</v>
+        <v>1627</v>
       </c>
       <c r="F19">
-        <v>2020</v>
+        <v>1753</v>
       </c>
       <c r="G19" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B20">
-        <v>1090</v>
+        <v>1655</v>
       </c>
       <c r="C20">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="D20">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E20">
-        <v>1090</v>
+        <v>1655</v>
       </c>
       <c r="F20">
-        <v>2384</v>
+        <v>2641</v>
       </c>
       <c r="G20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,48 +938,48 @@
         <v>33</v>
       </c>
       <c r="B21">
-        <v>1568</v>
+        <v>1882</v>
       </c>
       <c r="C21">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="D21">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="E21">
-        <v>1568</v>
+        <v>1882</v>
       </c>
       <c r="F21">
-        <v>2813</v>
+        <v>1968</v>
       </c>
       <c r="G21" t="s">
         <v>11</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22">
+        <v>4</v>
+      </c>
+      <c r="B22">
+        <v>2067</v>
+      </c>
+      <c r="C22">
+        <v>28</v>
+      </c>
+      <c r="D22">
+        <v>33</v>
+      </c>
+      <c r="E22">
+        <v>2067</v>
+      </c>
+      <c r="F22">
+        <v>3834</v>
+      </c>
+      <c r="G22" t="s">
         <v>11</v>
-      </c>
-      <c r="B22">
-        <v>1617</v>
-      </c>
-      <c r="C22">
-        <v>36</v>
-      </c>
-      <c r="D22">
-        <v>8</v>
-      </c>
-      <c r="E22">
-        <v>1617</v>
-      </c>
-      <c r="F22">
-        <v>3421</v>
-      </c>
-      <c r="G22" t="s">
-        <v>8</v>
       </c>
       <c r="H22">
         <v>2</v>
@@ -987,155 +987,155 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="B23">
-        <v>1653</v>
+        <v>2153</v>
       </c>
       <c r="C23">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E23">
-        <v>1653</v>
+        <v>2153</v>
       </c>
       <c r="F23">
-        <v>3382</v>
+        <v>3158</v>
       </c>
       <c r="G23" t="s">
         <v>11</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="B24">
-        <v>1815</v>
+        <v>2298</v>
       </c>
       <c r="C24">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="D24">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="E24">
-        <v>1815</v>
+        <v>2298</v>
       </c>
       <c r="F24">
-        <v>3122</v>
+        <v>3385</v>
       </c>
       <c r="G24" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B25">
-        <v>2045</v>
+        <v>2415</v>
       </c>
       <c r="C25">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D25">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="E25">
-        <v>2045</v>
+        <v>2415</v>
       </c>
       <c r="F25">
-        <v>3674</v>
+        <v>2525</v>
       </c>
       <c r="G25" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B26">
-        <v>2108</v>
+        <v>2427</v>
       </c>
       <c r="C26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D26">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="E26">
-        <v>2108</v>
+        <v>2427</v>
       </c>
       <c r="F26">
-        <v>3840</v>
+        <v>3668</v>
       </c>
       <c r="G26" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B27">
-        <v>2186</v>
+        <v>2446</v>
       </c>
       <c r="C27">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D27">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E27">
-        <v>2186</v>
+        <v>2446</v>
       </c>
       <c r="F27">
-        <v>3588</v>
+        <v>3538</v>
       </c>
       <c r="G27" t="s">
         <v>8</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B28">
-        <v>2197</v>
+        <v>2541</v>
       </c>
       <c r="C28">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="D28">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="E28">
-        <v>2197</v>
+        <v>2541</v>
       </c>
       <c r="F28">
-        <v>3510</v>
+        <v>3898</v>
       </c>
       <c r="G28" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H28">
         <v>1</v>
@@ -1143,259 +1143,259 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="B29">
-        <v>2462</v>
+        <v>2548</v>
       </c>
       <c r="C29">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="D29">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E29">
-        <v>2462</v>
+        <v>2548</v>
       </c>
       <c r="F29">
-        <v>3556</v>
+        <v>4032</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="B30">
-        <v>2697</v>
+        <v>2573</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="D30">
         <v>26</v>
       </c>
       <c r="E30">
-        <v>2697</v>
+        <v>2573</v>
       </c>
       <c r="F30">
-        <v>2991</v>
+        <v>4357</v>
       </c>
       <c r="G30" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B31">
-        <v>2724</v>
+        <v>2669</v>
       </c>
       <c r="C31">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D31">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E31">
-        <v>2724</v>
+        <v>2669</v>
       </c>
       <c r="F31">
-        <v>3017</v>
+        <v>4240</v>
       </c>
       <c r="G31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B32">
-        <v>2740</v>
+        <v>2694</v>
       </c>
       <c r="C32">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D32">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E32">
-        <v>2740</v>
+        <v>2694</v>
       </c>
       <c r="F32">
-        <v>4324</v>
+        <v>3865</v>
       </c>
       <c r="G32" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B33">
-        <v>2748</v>
+        <v>2744</v>
       </c>
       <c r="C33">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D33">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E33">
-        <v>2748</v>
+        <v>2744</v>
       </c>
       <c r="F33">
-        <v>3860</v>
+        <v>3741</v>
       </c>
       <c r="G33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="B34">
-        <v>2794</v>
+        <v>2774</v>
       </c>
       <c r="C34">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D34">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E34">
-        <v>2794</v>
+        <v>2774</v>
       </c>
       <c r="F34">
-        <v>4160</v>
+        <v>4077</v>
       </c>
       <c r="G34" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B35">
-        <v>2803</v>
+        <v>2784</v>
       </c>
       <c r="C35">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D35">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="E35">
-        <v>2803</v>
+        <v>2784</v>
       </c>
       <c r="F35">
-        <v>3097</v>
+        <v>4132</v>
       </c>
       <c r="G35" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>2839</v>
+        <v>2808</v>
       </c>
       <c r="C36">
         <v>25</v>
       </c>
       <c r="D36">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="E36">
-        <v>2839</v>
+        <v>2808</v>
       </c>
       <c r="F36">
-        <v>3922</v>
+        <v>4292</v>
       </c>
       <c r="G36" t="s">
         <v>8</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="B37">
-        <v>3031</v>
+        <v>2925</v>
       </c>
       <c r="C37">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="D37">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E37">
-        <v>3031</v>
+        <v>2925</v>
       </c>
       <c r="F37">
-        <v>3971</v>
+        <v>3040</v>
       </c>
       <c r="G37" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B38">
-        <v>3287</v>
+        <v>3011</v>
       </c>
       <c r="C38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D38">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E38">
-        <v>3287</v>
+        <v>3011</v>
       </c>
       <c r="F38">
-        <v>4748</v>
+        <v>4428</v>
       </c>
       <c r="G38" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -1403,25 +1403,25 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B39">
-        <v>3481</v>
+        <v>3193</v>
       </c>
       <c r="C39">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="D39">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="E39">
-        <v>3481</v>
+        <v>3193</v>
       </c>
       <c r="F39">
-        <v>4849</v>
+        <v>4329</v>
       </c>
       <c r="G39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -1429,22 +1429,22 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="B40">
-        <v>3499</v>
+        <v>3297</v>
       </c>
       <c r="C40">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="D40">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E40">
-        <v>3499</v>
+        <v>3297</v>
       </c>
       <c r="F40">
-        <v>3729</v>
+        <v>3439</v>
       </c>
       <c r="G40" t="s">
         <v>11</v>
@@ -1455,28 +1455,28 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B41">
-        <v>3499</v>
+        <v>3571</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D41">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E41">
-        <v>3499</v>
+        <v>3571</v>
       </c>
       <c r="F41">
-        <v>4608</v>
+        <v>3721</v>
       </c>
       <c r="G41" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
